--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D2EA1F7-7A07-4295-84FB-31BC4FFABFE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CC44B6-812D-4E14-B07A-1D207AADA93B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T073117.728" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T064339.665" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="126">
   <si>
     <t>Do Ty</t>
   </si>
@@ -317,6 +317,75 @@
   </si>
   <si>
     <t>IMPORT UNIK LCL ORDER ADIDAS</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Inventory Issue</t>
+  </si>
+  <si>
+    <t>ADS_PERBAIKAN DOKUMEN</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>NR70000022</t>
+  </si>
+  <si>
+    <t>STORAGE LCL INV IV70000037</t>
+  </si>
+  <si>
+    <t>NR70000023</t>
+  </si>
+  <si>
+    <t>STORAGE LCL INV IV70000038</t>
+  </si>
+  <si>
+    <t>NR10000004</t>
+  </si>
+  <si>
+    <t>APOTEK &amp; KLINIK NUHATO</t>
+  </si>
+  <si>
+    <t>9/INV/PTG/II/2024</t>
+  </si>
+  <si>
+    <t>TARMILAH</t>
+  </si>
+  <si>
+    <t>BIAYA DR KLINIK MAJA</t>
+  </si>
+  <si>
+    <t>4/INV/PTG/II/2024</t>
+  </si>
+  <si>
+    <t>BIAYA OBAT KLINIK MAJA I</t>
+  </si>
+  <si>
+    <t>PT.NUSANTARA SATRIA AGUNG</t>
+  </si>
+  <si>
+    <t>NSA-2024-0392</t>
+  </si>
+  <si>
+    <t>JASA PENYEDIAAN TENAGA KERJA</t>
+  </si>
+  <si>
+    <t>BIAYA TENAGA KERJA NSA MAJA II</t>
+  </si>
+  <si>
+    <t>NSA-2024-0504</t>
+  </si>
+  <si>
+    <t>JASA PENYEDIA TENAGA KERJA</t>
+  </si>
+  <si>
+    <t>KEKURANGAN BIAYA TK MAJA II</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1171,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ24"/>
+  <dimension ref="A1:AZ45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2653,13 +2722,13 @@
         <v>80</v>
       </c>
       <c r="G12" s="2">
-        <v>1389496</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1389496</v>
+        <v>-1389496</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
+      </c>
+      <c r="K12" s="2">
+        <v>-1389496</v>
       </c>
       <c r="O12" t="s">
         <v>56</v>
@@ -2692,7 +2761,7 @@
         <v>56</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="s">
         <v>56</v>
@@ -2707,7 +2776,7 @@
         <v>56</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH12" t="s">
         <v>56</v>
@@ -2738,6 +2807,9 @@
       </c>
       <c r="AR12" t="s">
         <v>77</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>45339</v>
       </c>
       <c r="AU12" t="s">
         <v>56</v>
@@ -2763,7 +2835,7 @@
         <v>69</v>
       </c>
       <c r="C13">
-        <v>24002520</v>
+        <v>24002519</v>
       </c>
       <c r="D13">
         <v>1204</v>
@@ -2772,26 +2844,17 @@
         <v>45339</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13">
-        <v>653.13</v>
-      </c>
-      <c r="H13">
-        <v>653.13</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1389496</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1389496</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="2">
-        <v>10321400</v>
-      </c>
-      <c r="N13" s="2">
-        <v>10321400</v>
-      </c>
       <c r="O13" t="s">
         <v>56</v>
       </c>
@@ -2799,10 +2862,7 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13">
-        <v>15803</v>
+        <v>81</v>
       </c>
       <c r="T13" t="s">
         <v>58</v>
@@ -2817,7 +2877,7 @@
         <v>72</v>
       </c>
       <c r="X13">
-        <v>2103700</v>
+        <v>2103699</v>
       </c>
       <c r="Y13" s="1">
         <v>45339</v>
@@ -2847,16 +2907,16 @@
         <v>56</v>
       </c>
       <c r="AI13">
-        <v>55229662</v>
+        <v>55322891</v>
       </c>
       <c r="AJ13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM13" s="1">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="AN13" t="s">
         <v>74</v>
@@ -2871,7 +2931,7 @@
         <v>64</v>
       </c>
       <c r="AR13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AU13" t="s">
         <v>56</v>
@@ -2880,7 +2940,7 @@
         <v>65</v>
       </c>
       <c r="AX13">
-        <v>24001067</v>
+        <v>24001069</v>
       </c>
       <c r="AY13">
         <v>631100</v>
@@ -2897,7 +2957,7 @@
         <v>69</v>
       </c>
       <c r="C14">
-        <v>24002521</v>
+        <v>24002520</v>
       </c>
       <c r="D14">
         <v>1204</v>
@@ -2906,13 +2966,13 @@
         <v>45339</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>26.23</v>
+        <v>653.13</v>
       </c>
       <c r="H14">
-        <v>26.23</v>
+        <v>653.13</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
@@ -2921,10 +2981,10 @@
         <v>55</v>
       </c>
       <c r="L14" s="2">
-        <v>414500</v>
+        <v>10321400</v>
       </c>
       <c r="N14" s="2">
-        <v>414500</v>
+        <v>10321400</v>
       </c>
       <c r="O14" t="s">
         <v>56</v>
@@ -2981,13 +3041,13 @@
         <v>56</v>
       </c>
       <c r="AI14">
-        <v>57404874</v>
+        <v>55229662</v>
       </c>
       <c r="AJ14" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AM14" s="1">
         <v>45300</v>
@@ -3014,7 +3074,7 @@
         <v>65</v>
       </c>
       <c r="AX14">
-        <v>24001070</v>
+        <v>24001067</v>
       </c>
       <c r="AY14">
         <v>631100</v>
@@ -3031,7 +3091,7 @@
         <v>69</v>
       </c>
       <c r="C15">
-        <v>24002522</v>
+        <v>24002521</v>
       </c>
       <c r="D15">
         <v>1204</v>
@@ -3040,13 +3100,13 @@
         <v>45339</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1143.99</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1143.99</v>
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>26.23</v>
+      </c>
+      <c r="H15">
+        <v>26.23</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
@@ -3055,10 +3115,10 @@
         <v>55</v>
       </c>
       <c r="L15" s="2">
-        <v>18078516</v>
+        <v>414500</v>
       </c>
       <c r="N15" s="2">
-        <v>18078516</v>
+        <v>414500</v>
       </c>
       <c r="O15" t="s">
         <v>56</v>
@@ -3115,16 +3175,16 @@
         <v>56</v>
       </c>
       <c r="AI15">
-        <v>55229662</v>
+        <v>57404874</v>
       </c>
       <c r="AJ15" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AM15" s="1">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="AN15" t="s">
         <v>74</v>
@@ -3139,7 +3199,7 @@
         <v>64</v>
       </c>
       <c r="AR15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AU15" t="s">
         <v>56</v>
@@ -3148,7 +3208,7 @@
         <v>65</v>
       </c>
       <c r="AX15">
-        <v>24001097</v>
+        <v>24001070</v>
       </c>
       <c r="AY15">
         <v>631100</v>
@@ -3165,7 +3225,7 @@
         <v>69</v>
       </c>
       <c r="C16">
-        <v>24002523</v>
+        <v>24002522</v>
       </c>
       <c r="D16">
         <v>1204</v>
@@ -3174,13 +3234,13 @@
         <v>45339</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16">
-        <v>267.38</v>
-      </c>
-      <c r="H16">
-        <v>267.38</v>
+        <v>70</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1143.99</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1143.99</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
@@ -3189,10 +3249,10 @@
         <v>55</v>
       </c>
       <c r="L16" s="2">
-        <v>4225368</v>
+        <v>18078516</v>
       </c>
       <c r="N16" s="2">
-        <v>4225368</v>
+        <v>18078516</v>
       </c>
       <c r="O16" t="s">
         <v>56</v>
@@ -3249,13 +3309,13 @@
         <v>56</v>
       </c>
       <c r="AI16">
-        <v>55322891</v>
+        <v>55229662</v>
       </c>
       <c r="AJ16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AM16" s="1">
         <v>45301</v>
@@ -3273,7 +3333,7 @@
         <v>64</v>
       </c>
       <c r="AR16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AU16" t="s">
         <v>56</v>
@@ -3282,7 +3342,7 @@
         <v>65</v>
       </c>
       <c r="AX16">
-        <v>24001098</v>
+        <v>24001097</v>
       </c>
       <c r="AY16">
         <v>631100</v>
@@ -3299,7 +3359,7 @@
         <v>69</v>
       </c>
       <c r="C17">
-        <v>24002524</v>
+        <v>24002523</v>
       </c>
       <c r="D17">
         <v>1204</v>
@@ -3308,13 +3368,13 @@
         <v>45339</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G17">
-        <v>228.55</v>
+        <v>267.38</v>
       </c>
       <c r="H17">
-        <v>228.55</v>
+        <v>267.38</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
@@ -3323,10 +3383,10 @@
         <v>55</v>
       </c>
       <c r="L17" s="2">
-        <v>3611800</v>
+        <v>4225368</v>
       </c>
       <c r="N17" s="2">
-        <v>3611800</v>
+        <v>4225368</v>
       </c>
       <c r="O17" t="s">
         <v>56</v>
@@ -3383,16 +3443,16 @@
         <v>56</v>
       </c>
       <c r="AI17">
-        <v>55229662</v>
+        <v>55322891</v>
       </c>
       <c r="AJ17" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AM17" s="1">
-        <v>45316</v>
+        <v>45301</v>
       </c>
       <c r="AN17" t="s">
         <v>74</v>
@@ -3407,7 +3467,7 @@
         <v>64</v>
       </c>
       <c r="AR17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AU17" t="s">
         <v>56</v>
@@ -3416,7 +3476,7 @@
         <v>65</v>
       </c>
       <c r="AX17">
-        <v>24001097</v>
+        <v>24001098</v>
       </c>
       <c r="AY17">
         <v>631100</v>
@@ -3433,7 +3493,7 @@
         <v>69</v>
       </c>
       <c r="C18">
-        <v>24002525</v>
+        <v>24002524</v>
       </c>
       <c r="D18">
         <v>1204</v>
@@ -3442,13 +3502,13 @@
         <v>45339</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G18">
-        <v>38.619999999999997</v>
+        <v>228.55</v>
       </c>
       <c r="H18">
-        <v>38.619999999999997</v>
+        <v>228.55</v>
       </c>
       <c r="I18" t="s">
         <v>55</v>
@@ -3457,10 +3517,10 @@
         <v>55</v>
       </c>
       <c r="L18" s="2">
-        <v>610329</v>
+        <v>3611800</v>
       </c>
       <c r="N18" s="2">
-        <v>610329</v>
+        <v>3611800</v>
       </c>
       <c r="O18" t="s">
         <v>56</v>
@@ -3517,13 +3577,13 @@
         <v>56</v>
       </c>
       <c r="AI18">
-        <v>57304179</v>
+        <v>55229662</v>
       </c>
       <c r="AJ18" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="AL18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AM18" s="1">
         <v>45316</v>
@@ -3541,7 +3601,7 @@
         <v>64</v>
       </c>
       <c r="AR18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AU18" t="s">
         <v>56</v>
@@ -3550,7 +3610,7 @@
         <v>65</v>
       </c>
       <c r="AX18">
-        <v>24001099</v>
+        <v>24001097</v>
       </c>
       <c r="AY18">
         <v>631100</v>
@@ -3567,7 +3627,7 @@
         <v>69</v>
       </c>
       <c r="C19">
-        <v>24002526</v>
+        <v>24002525</v>
       </c>
       <c r="D19">
         <v>1204</v>
@@ -3576,13 +3636,13 @@
         <v>45339</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G19">
-        <v>353.54</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="H19">
-        <v>353.54</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="I19" t="s">
         <v>55</v>
@@ -3591,10 +3651,10 @@
         <v>55</v>
       </c>
       <c r="L19" s="2">
-        <v>5587000</v>
+        <v>610329</v>
       </c>
       <c r="N19" s="2">
-        <v>5587000</v>
+        <v>610329</v>
       </c>
       <c r="O19" t="s">
         <v>56</v>
@@ -3621,7 +3681,7 @@
         <v>72</v>
       </c>
       <c r="X19">
-        <v>2103701</v>
+        <v>2103700</v>
       </c>
       <c r="Y19" s="1">
         <v>45339</v>
@@ -3651,13 +3711,13 @@
         <v>56</v>
       </c>
       <c r="AI19">
-        <v>55229662</v>
+        <v>57304179</v>
       </c>
       <c r="AJ19" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="AL19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AM19" s="1">
         <v>45316</v>
@@ -3675,7 +3735,7 @@
         <v>64</v>
       </c>
       <c r="AR19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AU19" t="s">
         <v>56</v>
@@ -3684,7 +3744,7 @@
         <v>65</v>
       </c>
       <c r="AX19">
-        <v>24001113</v>
+        <v>24001099</v>
       </c>
       <c r="AY19">
         <v>631100</v>
@@ -3701,7 +3761,7 @@
         <v>69</v>
       </c>
       <c r="C20">
-        <v>24002527</v>
+        <v>24002526</v>
       </c>
       <c r="D20">
         <v>1204</v>
@@ -3713,10 +3773,10 @@
         <v>70</v>
       </c>
       <c r="G20">
-        <v>716.55</v>
+        <v>353.54</v>
       </c>
       <c r="H20">
-        <v>716.55</v>
+        <v>353.54</v>
       </c>
       <c r="I20" t="s">
         <v>55</v>
@@ -3725,10 +3785,10 @@
         <v>55</v>
       </c>
       <c r="L20" s="2">
-        <v>11323600</v>
+        <v>5587000</v>
       </c>
       <c r="N20" s="2">
-        <v>11323600</v>
+        <v>5587000</v>
       </c>
       <c r="O20" t="s">
         <v>56</v>
@@ -3791,7 +3851,7 @@
         <v>70</v>
       </c>
       <c r="AL20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AM20" s="1">
         <v>45316</v>
@@ -3809,7 +3869,7 @@
         <v>64</v>
       </c>
       <c r="AR20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AU20" t="s">
         <v>56</v>
@@ -3828,74 +3888,2804 @@
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21">
+        <v>24002527</v>
+      </c>
+      <c r="D21">
+        <v>1204</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45339</v>
+      </c>
       <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1394454.02</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1394454.39</v>
-      </c>
-      <c r="K21">
-        <v>-0.37</v>
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>716.55</v>
+      </c>
+      <c r="H21">
+        <v>716.55</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
       </c>
       <c r="L21" s="2">
-        <v>78062205</v>
+        <v>11323600</v>
       </c>
       <c r="N21" s="2">
-        <v>78062205</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>25148.639999999999</v>
+        <v>11323600</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s">
+        <v>72</v>
+      </c>
+      <c r="X21">
+        <v>2103701</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45339</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>55229662</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21">
+        <v>1204</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX21">
+        <v>24001113</v>
+      </c>
+      <c r="AY21">
+        <v>631100</v>
+      </c>
+      <c r="AZ21">
+        <v>1204.6311000000001</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>24001166</v>
+      </c>
+      <c r="D22">
+        <v>1204</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45341</v>
+      </c>
       <c r="F22" t="s">
-        <v>100</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1394454.02</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1394454.02</v>
-      </c>
-      <c r="L22" s="2">
-        <v>78062205</v>
-      </c>
-      <c r="N22" s="2">
-        <v>78062205</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>25148.639999999999</v>
+        <v>101</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>102</v>
+      </c>
+      <c r="W22" t="s">
+        <v>103</v>
+      </c>
+      <c r="X22">
+        <v>2104015</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG22">
+        <v>300</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22">
+        <v>1204</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR22">
+        <v>290059</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY22">
+        <v>631100</v>
+      </c>
+      <c r="AZ22">
+        <v>1204.6311000000001</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>24002528</v>
+      </c>
+      <c r="D23">
+        <v>1204</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45341</v>
+      </c>
       <c r="F23" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1394454.02</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1394454.39</v>
-      </c>
-      <c r="K23">
-        <v>-0.37</v>
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>26.26</v>
+      </c>
+      <c r="H23">
+        <v>26.26</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
       </c>
       <c r="L23" s="2">
-        <v>78062205</v>
+        <v>415000</v>
       </c>
       <c r="N23" s="2">
-        <v>78062205</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>25148.639999999999</v>
+        <v>415000</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23">
+        <v>2103923</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>55426480</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23">
+        <v>1204</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX23">
+        <v>24001114</v>
+      </c>
+      <c r="AY23">
+        <v>631100</v>
+      </c>
+      <c r="AZ23">
+        <v>1204.6311000000001</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>24002529</v>
+      </c>
+      <c r="D24">
+        <v>1204</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45341</v>
+      </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>78</v>
+      </c>
+      <c r="G24">
+        <v>76.88</v>
+      </c>
+      <c r="H24">
+        <v>76.88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1215000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1215000</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" t="s">
+        <v>72</v>
+      </c>
+      <c r="X24">
+        <v>2103923</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>55426480</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP24">
+        <v>1204</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX24">
+        <v>24001114</v>
+      </c>
+      <c r="AY24">
+        <v>631100</v>
+      </c>
+      <c r="AZ24">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24002192</v>
+      </c>
+      <c r="D25">
+        <v>1204</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25">
+        <v>-0.06</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>-0.06</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2104066</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>1152</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>55254841</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP25">
+        <v>1204</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR25">
+        <v>295218</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX25">
+        <v>23003202</v>
+      </c>
+      <c r="AY25">
+        <v>631100</v>
+      </c>
+      <c r="AZ25">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24002197</v>
+      </c>
+      <c r="D26">
+        <v>1204</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <v>2.57</v>
+      </c>
+      <c r="H26">
+        <v>2.57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15803</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2104066</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>4</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG26">
+        <v>360</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26">
+        <v>55254841</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26">
+        <v>1204</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR26">
+        <v>295218</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX26">
+        <v>23003202</v>
+      </c>
+      <c r="AY26">
+        <v>631100</v>
+      </c>
+      <c r="AZ26">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24002198</v>
+      </c>
+      <c r="D27">
+        <v>1204</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27">
+        <v>4.58</v>
+      </c>
+      <c r="H27">
+        <v>4.58</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>15803</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2104066</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>4</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG27">
+        <v>576</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27">
+        <v>55254841</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP27">
+        <v>1204</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR27">
+        <v>295218</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX27">
+        <v>23003202</v>
+      </c>
+      <c r="AY27">
+        <v>631100</v>
+      </c>
+      <c r="AZ27">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24002199</v>
+      </c>
+      <c r="D28">
+        <v>1204</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H28">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28">
+        <v>15803</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2104066</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG28">
+        <v>158.4</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28">
+        <v>55254841</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP28">
+        <v>1204</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR28">
+        <v>295210</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX28">
+        <v>23003202</v>
+      </c>
+      <c r="AY28">
+        <v>631100</v>
+      </c>
+      <c r="AZ28">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24002200</v>
+      </c>
+      <c r="D29">
+        <v>1204</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29">
+        <v>2.68</v>
+      </c>
+      <c r="H29">
+        <v>2.68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29">
+        <v>15803</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2104066</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG29">
+        <v>374.4</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29">
+        <v>55254841</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP29">
+        <v>1204</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR29">
+        <v>295231</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX29">
+        <v>23003202</v>
+      </c>
+      <c r="AY29">
+        <v>631100</v>
+      </c>
+      <c r="AZ29">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>24002201</v>
+      </c>
+      <c r="D30">
+        <v>1204</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30">
+        <v>2.68</v>
+      </c>
+      <c r="H30">
+        <v>2.68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30">
+        <v>15803</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30">
+        <v>2104066</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG30">
+        <v>374.4</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI30">
+        <v>55254841</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP30">
+        <v>1204</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR30">
+        <v>295235</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX30">
+        <v>23003202</v>
+      </c>
+      <c r="AY30">
+        <v>631100</v>
+      </c>
+      <c r="AZ30">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>24002202</v>
+      </c>
+      <c r="D31">
+        <v>1204</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31">
+        <v>1.85</v>
+      </c>
+      <c r="H31">
+        <v>1.85</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31">
+        <v>15803</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31">
+        <v>2104066</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG31">
+        <v>259.2</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI31">
+        <v>55254841</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP31">
+        <v>1204</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR31">
+        <v>295237</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX31">
+        <v>23003202</v>
+      </c>
+      <c r="AY31">
+        <v>631100</v>
+      </c>
+      <c r="AZ31">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>24002203</v>
+      </c>
+      <c r="D32">
+        <v>1204</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32">
+        <v>1.91</v>
+      </c>
+      <c r="H32">
+        <v>1.91</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32">
+        <v>15803</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32">
+        <v>2104066</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG32">
+        <v>259.2</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI32">
+        <v>55254841</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP32">
+        <v>1204</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR32">
+        <v>295227</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX32">
+        <v>23003202</v>
+      </c>
+      <c r="AY32">
+        <v>631100</v>
+      </c>
+      <c r="AZ32">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>24002204</v>
+      </c>
+      <c r="D33">
+        <v>1204</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H33">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33">
+        <v>15803</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33">
+        <v>2104066</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG33">
+        <v>345.6</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI33">
+        <v>55254841</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP33">
+        <v>1204</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR33">
+        <v>295238</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX33">
+        <v>23003202</v>
+      </c>
+      <c r="AY33">
+        <v>631100</v>
+      </c>
+      <c r="AZ33">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>24002205</v>
+      </c>
+      <c r="D34">
+        <v>1204</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34">
+        <v>1.81</v>
+      </c>
+      <c r="H34">
+        <v>1.81</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34">
+        <v>15803</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34">
+        <v>2104066</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG34">
+        <v>244.8</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI34">
+        <v>55254841</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP34">
+        <v>1204</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR34">
+        <v>295217</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX34">
+        <v>23003202</v>
+      </c>
+      <c r="AY34">
+        <v>631100</v>
+      </c>
+      <c r="AZ34">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35">
+        <v>24002595</v>
+      </c>
+      <c r="D35">
+        <v>1204</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35">
+        <v>87.93</v>
+      </c>
+      <c r="H35">
+        <v>87.93</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1389496</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1389496</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35">
+        <v>15803</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>71</v>
+      </c>
+      <c r="W35" t="s">
+        <v>72</v>
+      </c>
+      <c r="X35">
+        <v>2105142</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI35">
+        <v>55322891</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>44930</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP35">
+        <v>1204</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX35">
+        <v>24001170</v>
+      </c>
+      <c r="AY35">
+        <v>631100</v>
+      </c>
+      <c r="AZ35">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>24002598</v>
+      </c>
+      <c r="D36">
+        <v>1204</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <v>562.42999999999995</v>
+      </c>
+      <c r="H36">
+        <v>562.42999999999995</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2">
+        <v>8888016</v>
+      </c>
+      <c r="N36" s="2">
+        <v>8888016</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36">
+        <v>15803</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" t="s">
+        <v>71</v>
+      </c>
+      <c r="W36" t="s">
+        <v>72</v>
+      </c>
+      <c r="X36">
+        <v>2105154</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG36">
+        <v>1</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI36">
+        <v>55738803</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP36">
+        <v>1204</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX36">
+        <v>24001155</v>
+      </c>
+      <c r="AY36">
+        <v>631100</v>
+      </c>
+      <c r="AZ36">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37">
+        <v>24002599</v>
+      </c>
+      <c r="D37">
+        <v>1204</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37">
+        <v>166.7</v>
+      </c>
+      <c r="H37">
+        <v>166.7</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2634361</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2634361</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37">
+        <v>15803</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" t="s">
+        <v>72</v>
+      </c>
+      <c r="X37">
+        <v>2105154</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI37">
+        <v>55738803</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP37">
+        <v>1204</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX37">
+        <v>24001155</v>
+      </c>
+      <c r="AY37">
+        <v>631100</v>
+      </c>
+      <c r="AZ37">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38">
+        <v>24002605</v>
+      </c>
+      <c r="D38">
+        <v>1204</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38">
+        <v>121.61</v>
+      </c>
+      <c r="H38">
+        <v>121.61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1921862</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1921862</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38">
+        <v>15803</v>
+      </c>
+      <c r="T38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" t="s">
+        <v>71</v>
+      </c>
+      <c r="W38" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38">
+        <v>2105313</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI38">
+        <v>55417891</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP38">
+        <v>1204</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX38">
+        <v>24001157</v>
+      </c>
+      <c r="AY38">
+        <v>631100</v>
+      </c>
+      <c r="AZ38">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <v>24002606</v>
+      </c>
+      <c r="D39">
+        <v>1204</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F39" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1216.1400000000001</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1216.1400000000001</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="2">
+        <v>19218622</v>
+      </c>
+      <c r="N39" s="2">
+        <v>19218622</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39">
+        <v>15803</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" t="s">
+        <v>71</v>
+      </c>
+      <c r="W39" t="s">
+        <v>72</v>
+      </c>
+      <c r="X39">
+        <v>2105314</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI39">
+        <v>55417891</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP39">
+        <v>1204</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX39">
+        <v>24001157</v>
+      </c>
+      <c r="AY39">
+        <v>631100</v>
+      </c>
+      <c r="AZ39">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40">
+        <v>24002609</v>
+      </c>
+      <c r="D40">
+        <v>1204</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40">
+        <v>3.62</v>
+      </c>
+      <c r="H40">
+        <v>3.62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2">
+        <v>57282</v>
+      </c>
+      <c r="N40" s="2">
+        <v>57282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40">
+        <v>15803</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" t="s">
+        <v>71</v>
+      </c>
+      <c r="W40" t="s">
+        <v>72</v>
+      </c>
+      <c r="X40">
+        <v>2105324</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI40">
+        <v>55417891</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP40">
+        <v>1204</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX40">
+        <v>24001158</v>
+      </c>
+      <c r="AY40">
+        <v>631100</v>
+      </c>
+      <c r="AZ40">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41">
+        <v>24002610</v>
+      </c>
+      <c r="D41">
+        <v>1204</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G41">
+        <v>36.25</v>
+      </c>
+      <c r="H41">
+        <v>36.25</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2">
+        <v>572823</v>
+      </c>
+      <c r="N41" s="2">
+        <v>572823</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41">
+        <v>15803</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W41" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41">
+        <v>2105325</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41">
+        <v>55417891</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP41">
+        <v>1204</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX41">
+        <v>24001158</v>
+      </c>
+      <c r="AY41">
+        <v>631100</v>
+      </c>
+      <c r="AZ41">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="2">
+        <v>7277.54</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1396773.97</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-1389496.43</v>
+      </c>
+      <c r="L42" s="2">
+        <v>114374667</v>
+      </c>
+      <c r="N42" s="2">
+        <v>114374667</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>29560.639999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="2">
+        <v>7277.54</v>
+      </c>
+      <c r="H43" s="2">
+        <v>7277.54</v>
+      </c>
+      <c r="L43" s="2">
+        <v>114374667</v>
+      </c>
+      <c r="N43" s="2">
+        <v>114374667</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>29560.639999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="2">
+        <v>7277.54</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1396773.97</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-1389496.43</v>
+      </c>
+      <c r="L44" s="2">
+        <v>114374667</v>
+      </c>
+      <c r="N44" s="2">
+        <v>114374667</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>29560.639999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631100.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.631100.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56CC44B6-812D-4E14-B07A-1D207AADA93B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{465E0EAC-E082-4DF6-AF84-F00C43F96AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T064339.665" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T064630.982" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="145">
   <si>
     <t>Do Ty</t>
   </si>
@@ -386,6 +386,63 @@
   </si>
   <si>
     <t>KEKURANGAN BIAYA TK MAJA II</t>
+  </si>
+  <si>
+    <t>IV70000024</t>
+  </si>
+  <si>
+    <t>IMPORT COST BY SEA ADIDAS FABR</t>
+  </si>
+  <si>
+    <t>JAKARTA INTERNATIONAL CONTAINE</t>
+  </si>
+  <si>
+    <t>NR70000012</t>
+  </si>
+  <si>
+    <t>LIFT OFF FCL INV IV70000024</t>
+  </si>
+  <si>
+    <t>PT. GLOBAL TERMINAL MARUNDA</t>
+  </si>
+  <si>
+    <t>STORAGE IMPORT INV IV70000024</t>
+  </si>
+  <si>
+    <t>ADS_PERBAIKAN AUDIT</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>CASH JOURNAL - IDR</t>
+  </si>
+  <si>
+    <t>OTHER PRODUCTION COST</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>TSANTIKA</t>
+  </si>
+  <si>
+    <t>RESI JNE,PANCA KOBRA DLL</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>JOURNAL KOREKSI</t>
+  </si>
+  <si>
+    <t>KOREKSI FREIGHT IN</t>
+  </si>
+  <si>
+    <t>SANTY</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1240,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ45"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2052,22 +2109,22 @@
         <v>53</v>
       </c>
       <c r="C7">
-        <v>24002131</v>
+        <v>24002394</v>
       </c>
       <c r="D7">
         <v>1204</v>
       </c>
       <c r="E7" s="1">
-        <v>45338</v>
+        <v>45331</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G7">
-        <v>0.11</v>
+        <v>5.27</v>
       </c>
       <c r="H7">
-        <v>0.11</v>
+        <v>5.27</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
@@ -2100,10 +2157,10 @@
         <v>61</v>
       </c>
       <c r="X7">
-        <v>2103356</v>
+        <v>2105750</v>
       </c>
       <c r="Y7" s="1">
-        <v>45338</v>
+        <v>45349</v>
       </c>
       <c r="Z7" t="s">
         <v>56</v>
@@ -2123,26 +2180,26 @@
       <c r="AF7" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="2">
-        <v>11687.04</v>
+      <c r="AG7">
+        <v>460.8</v>
       </c>
       <c r="AH7" t="s">
         <v>56</v>
       </c>
       <c r="AI7">
-        <v>55269517</v>
+        <v>55254841</v>
       </c>
       <c r="AJ7" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AL7" t="s">
         <v>56</v>
       </c>
       <c r="AM7" s="1">
-        <v>45338</v>
+        <v>45331</v>
       </c>
       <c r="AN7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AO7" t="s">
         <v>63</v>
@@ -2154,7 +2211,7 @@
         <v>64</v>
       </c>
       <c r="AR7">
-        <v>295158</v>
+        <v>295220</v>
       </c>
       <c r="AU7" t="s">
         <v>56</v>
@@ -2163,7 +2220,7 @@
         <v>65</v>
       </c>
       <c r="AX7">
-        <v>23003191</v>
+        <v>23003202</v>
       </c>
       <c r="AY7">
         <v>631100</v>
@@ -2180,28 +2237,28 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>24002133</v>
+        <v>24002390</v>
       </c>
       <c r="D8">
         <v>1204</v>
       </c>
       <c r="E8" s="1">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G8">
-        <v>0.09</v>
-      </c>
-      <c r="H8">
-        <v>0.09</v>
+        <v>-0.01</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
       </c>
       <c r="J8" t="s">
         <v>55</v>
+      </c>
+      <c r="K8">
+        <v>-0.01</v>
       </c>
       <c r="O8" t="s">
         <v>56</v>
@@ -2228,10 +2285,10 @@
         <v>61</v>
       </c>
       <c r="X8">
-        <v>2103387</v>
+        <v>2105730</v>
       </c>
       <c r="Y8" s="1">
-        <v>45338</v>
+        <v>45349</v>
       </c>
       <c r="Z8" t="s">
         <v>56</v>
@@ -2251,23 +2308,23 @@
       <c r="AF8" t="s">
         <v>56</v>
       </c>
-      <c r="AG8" s="2">
-        <v>9792</v>
+      <c r="AG8">
+        <v>288</v>
       </c>
       <c r="AH8" t="s">
         <v>56</v>
       </c>
       <c r="AI8">
-        <v>55269517</v>
+        <v>55254841</v>
       </c>
       <c r="AJ8" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AL8" t="s">
         <v>56</v>
       </c>
       <c r="AM8" s="1">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="AN8" t="s">
         <v>62</v>
@@ -2282,7 +2339,7 @@
         <v>64</v>
       </c>
       <c r="AR8">
-        <v>295158</v>
+        <v>295220</v>
       </c>
       <c r="AU8" t="s">
         <v>56</v>
@@ -2291,7 +2348,7 @@
         <v>65</v>
       </c>
       <c r="AX8">
-        <v>23003191</v>
+        <v>23003202</v>
       </c>
       <c r="AY8">
         <v>631100</v>
@@ -2302,40 +2359,34 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>24002516</v>
+        <v>24002131</v>
       </c>
       <c r="D9">
         <v>1204</v>
       </c>
       <c r="E9" s="1">
-        <v>45339</v>
+        <v>45338</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9">
-        <v>404.21</v>
+        <v>0.11</v>
       </c>
       <c r="H9">
-        <v>404.21</v>
+        <v>0.11</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="2">
-        <v>6387700</v>
-      </c>
-      <c r="N9" s="2">
-        <v>6387700</v>
       </c>
       <c r="O9" t="s">
         <v>56</v>
@@ -2356,22 +2407,22 @@
         <v>59</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="X9">
-        <v>2103699</v>
+        <v>2103356</v>
       </c>
       <c r="Y9" s="1">
-        <v>45339</v>
+        <v>45338</v>
       </c>
       <c r="Z9" t="s">
         <v>56</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB9" t="s">
         <v>56</v>
@@ -2385,26 +2436,26 @@
       <c r="AF9" t="s">
         <v>56</v>
       </c>
-      <c r="AG9">
-        <v>1</v>
+      <c r="AG9" s="2">
+        <v>11687.04</v>
       </c>
       <c r="AH9" t="s">
         <v>56</v>
       </c>
       <c r="AI9">
-        <v>55229662</v>
+        <v>55269517</v>
       </c>
       <c r="AJ9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AL9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="AM9" s="1">
-        <v>45295</v>
+        <v>45338</v>
       </c>
       <c r="AN9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AO9" t="s">
         <v>63</v>
@@ -2415,8 +2466,8 @@
       <c r="AQ9" t="s">
         <v>64</v>
       </c>
-      <c r="AR9" t="s">
-        <v>75</v>
+      <c r="AR9">
+        <v>295158</v>
       </c>
       <c r="AU9" t="s">
         <v>56</v>
@@ -2425,7 +2476,7 @@
         <v>65</v>
       </c>
       <c r="AX9">
-        <v>24001067</v>
+        <v>23003191</v>
       </c>
       <c r="AY9">
         <v>631100</v>
@@ -2436,40 +2487,34 @@
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C10">
-        <v>24002517</v>
+        <v>24002133</v>
       </c>
       <c r="D10">
         <v>1204</v>
       </c>
       <c r="E10" s="1">
-        <v>45339</v>
+        <v>45338</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1086</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1086</v>
+        <v>66</v>
+      </c>
+      <c r="G10">
+        <v>0.09</v>
+      </c>
+      <c r="H10">
+        <v>0.09</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="2">
-        <v>17161992</v>
-      </c>
-      <c r="N10" s="2">
-        <v>17161992</v>
       </c>
       <c r="O10" t="s">
         <v>56</v>
@@ -2490,22 +2535,22 @@
         <v>59</v>
       </c>
       <c r="V10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="W10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="X10">
-        <v>2103699</v>
+        <v>2103387</v>
       </c>
       <c r="Y10" s="1">
-        <v>45339</v>
+        <v>45338</v>
       </c>
       <c r="Z10" t="s">
         <v>56</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB10" t="s">
         <v>56</v>
@@ -2519,26 +2564,26 @@
       <c r="AF10" t="s">
         <v>56</v>
       </c>
-      <c r="AG10">
-        <v>1</v>
+      <c r="AG10" s="2">
+        <v>9792</v>
       </c>
       <c r="AH10" t="s">
         <v>56</v>
       </c>
       <c r="AI10">
-        <v>55229662</v>
+        <v>55269517</v>
       </c>
       <c r="AJ10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AL10" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AM10" s="1">
-        <v>45295</v>
+        <v>45338</v>
       </c>
       <c r="AN10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AO10" t="s">
         <v>63</v>
@@ -2549,8 +2594,8 @@
       <c r="AQ10" t="s">
         <v>64</v>
       </c>
-      <c r="AR10" t="s">
-        <v>77</v>
+      <c r="AR10">
+        <v>295158</v>
       </c>
       <c r="AU10" t="s">
         <v>56</v>
@@ -2559,7 +2604,7 @@
         <v>65</v>
       </c>
       <c r="AX10">
-        <v>24001067</v>
+        <v>23003191</v>
       </c>
       <c r="AY10">
         <v>631100</v>
@@ -2576,7 +2621,7 @@
         <v>69</v>
       </c>
       <c r="C11">
-        <v>24002518</v>
+        <v>24002516</v>
       </c>
       <c r="D11">
         <v>1204</v>
@@ -2585,13 +2630,13 @@
         <v>45339</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G11">
-        <v>21.51</v>
+        <v>404.21</v>
       </c>
       <c r="H11">
-        <v>21.51</v>
+        <v>404.21</v>
       </c>
       <c r="I11" t="s">
         <v>55</v>
@@ -2600,10 +2645,10 @@
         <v>55</v>
       </c>
       <c r="L11" s="2">
-        <v>340000</v>
+        <v>6387700</v>
       </c>
       <c r="N11" s="2">
-        <v>340000</v>
+        <v>6387700</v>
       </c>
       <c r="O11" t="s">
         <v>56</v>
@@ -2660,13 +2705,13 @@
         <v>56</v>
       </c>
       <c r="AI11">
-        <v>55426480</v>
+        <v>55229662</v>
       </c>
       <c r="AJ11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AM11" s="1">
         <v>45295</v>
@@ -2693,7 +2738,7 @@
         <v>65</v>
       </c>
       <c r="AX11">
-        <v>24001068</v>
+        <v>24001067</v>
       </c>
       <c r="AY11">
         <v>631100</v>
@@ -2710,7 +2755,7 @@
         <v>69</v>
       </c>
       <c r="C12">
-        <v>24002519</v>
+        <v>24002517</v>
       </c>
       <c r="D12">
         <v>1204</v>
@@ -2719,16 +2764,25 @@
         <v>45339</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
-        <v>-1389496</v>
+        <v>1086</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1086</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="2">
-        <v>-1389496</v>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2">
+        <v>17161992</v>
+      </c>
+      <c r="N12" s="2">
+        <v>17161992</v>
       </c>
       <c r="O12" t="s">
         <v>56</v>
@@ -2737,7 +2791,10 @@
         <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
       </c>
       <c r="T12" t="s">
         <v>58</v>
@@ -2761,7 +2818,7 @@
         <v>56</v>
       </c>
       <c r="AA12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="s">
         <v>56</v>
@@ -2776,19 +2833,19 @@
         <v>56</v>
       </c>
       <c r="AG12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="s">
         <v>56</v>
       </c>
       <c r="AI12">
-        <v>55322891</v>
+        <v>55229662</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AM12" s="1">
         <v>45295</v>
@@ -2808,9 +2865,6 @@
       <c r="AR12" t="s">
         <v>77</v>
       </c>
-      <c r="AT12" s="1">
-        <v>45339</v>
-      </c>
       <c r="AU12" t="s">
         <v>56</v>
       </c>
@@ -2818,7 +2872,7 @@
         <v>65</v>
       </c>
       <c r="AX12">
-        <v>24001069</v>
+        <v>24001067</v>
       </c>
       <c r="AY12">
         <v>631100</v>
@@ -2835,7 +2889,7 @@
         <v>69</v>
       </c>
       <c r="C13">
-        <v>24002519</v>
+        <v>24002518</v>
       </c>
       <c r="D13">
         <v>1204</v>
@@ -2844,17 +2898,26 @@
         <v>45339</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1389496</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1389496</v>
+        <v>78</v>
+      </c>
+      <c r="G13">
+        <v>21.51</v>
+      </c>
+      <c r="H13">
+        <v>21.51</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
+        <v>340000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>340000</v>
+      </c>
       <c r="O13" t="s">
         <v>56</v>
       </c>
@@ -2862,7 +2925,10 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
       </c>
       <c r="T13" t="s">
         <v>58</v>
@@ -2907,13 +2973,13 @@
         <v>56</v>
       </c>
       <c r="AI13">
-        <v>55322891</v>
+        <v>55426480</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AM13" s="1">
         <v>45295</v>
@@ -2931,7 +2997,7 @@
         <v>64</v>
       </c>
       <c r="AR13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AU13" t="s">
         <v>56</v>
@@ -2940,7 +3006,7 @@
         <v>65</v>
       </c>
       <c r="AX13">
-        <v>24001069</v>
+        <v>24001068</v>
       </c>
       <c r="AY13">
         <v>631100</v>
@@ -2957,7 +3023,7 @@
         <v>69</v>
       </c>
       <c r="C14">
-        <v>24002520</v>
+        <v>24002519</v>
       </c>
       <c r="D14">
         <v>1204</v>
@@ -2966,26 +3032,17 @@
         <v>45339</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14">
-        <v>653.13</v>
-      </c>
-      <c r="H14">
-        <v>653.13</v>
+        <v>80</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1389496</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1389496</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="2">
-        <v>10321400</v>
-      </c>
-      <c r="N14" s="2">
-        <v>10321400</v>
-      </c>
       <c r="O14" t="s">
         <v>56</v>
       </c>
@@ -2993,10 +3050,7 @@
         <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14">
-        <v>15803</v>
+        <v>81</v>
       </c>
       <c r="T14" t="s">
         <v>58</v>
@@ -3011,7 +3065,7 @@
         <v>72</v>
       </c>
       <c r="X14">
-        <v>2103700</v>
+        <v>2103699</v>
       </c>
       <c r="Y14" s="1">
         <v>45339</v>
@@ -3041,16 +3095,16 @@
         <v>56</v>
       </c>
       <c r="AI14">
-        <v>55229662</v>
+        <v>55322891</v>
       </c>
       <c r="AJ14" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM14" s="1">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="AN14" t="s">
         <v>74</v>
@@ -3065,7 +3119,7 @@
         <v>64</v>
       </c>
       <c r="AR14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AU14" t="s">
         <v>56</v>
@@ -3074,7 +3128,7 @@
         <v>65</v>
       </c>
       <c r="AX14">
-        <v>24001067</v>
+        <v>24001069</v>
       </c>
       <c r="AY14">
         <v>631100</v>
@@ -3091,7 +3145,7 @@
         <v>69</v>
       </c>
       <c r="C15">
-        <v>24002521</v>
+        <v>24002519</v>
       </c>
       <c r="D15">
         <v>1204</v>
@@ -3100,25 +3154,16 @@
         <v>45339</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15">
-        <v>26.23</v>
-      </c>
-      <c r="H15">
-        <v>26.23</v>
+        <v>80</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1389496</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
       </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="2">
-        <v>414500</v>
-      </c>
-      <c r="N15" s="2">
-        <v>414500</v>
+      <c r="K15" s="2">
+        <v>-1389496</v>
       </c>
       <c r="O15" t="s">
         <v>56</v>
@@ -3127,10 +3172,7 @@
         <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15">
-        <v>15803</v>
+        <v>81</v>
       </c>
       <c r="T15" t="s">
         <v>58</v>
@@ -3145,7 +3187,7 @@
         <v>72</v>
       </c>
       <c r="X15">
-        <v>2103700</v>
+        <v>2103699</v>
       </c>
       <c r="Y15" s="1">
         <v>45339</v>
@@ -3154,7 +3196,7 @@
         <v>56</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="s">
         <v>56</v>
@@ -3169,22 +3211,22 @@
         <v>56</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH15" t="s">
         <v>56</v>
       </c>
       <c r="AI15">
-        <v>57404874</v>
+        <v>55322891</v>
       </c>
       <c r="AJ15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AM15" s="1">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="AN15" t="s">
         <v>74</v>
@@ -3199,7 +3241,10 @@
         <v>64</v>
       </c>
       <c r="AR15" t="s">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>45339</v>
       </c>
       <c r="AU15" t="s">
         <v>56</v>
@@ -3208,7 +3253,7 @@
         <v>65</v>
       </c>
       <c r="AX15">
-        <v>24001070</v>
+        <v>24001069</v>
       </c>
       <c r="AY15">
         <v>631100</v>
@@ -3225,7 +3270,7 @@
         <v>69</v>
       </c>
       <c r="C16">
-        <v>24002522</v>
+        <v>24002520</v>
       </c>
       <c r="D16">
         <v>1204</v>
@@ -3236,11 +3281,11 @@
       <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="2">
-        <v>1143.99</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1143.99</v>
+      <c r="G16">
+        <v>653.13</v>
+      </c>
+      <c r="H16">
+        <v>653.13</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
@@ -3249,10 +3294,10 @@
         <v>55</v>
       </c>
       <c r="L16" s="2">
-        <v>18078516</v>
+        <v>10321400</v>
       </c>
       <c r="N16" s="2">
-        <v>18078516</v>
+        <v>10321400</v>
       </c>
       <c r="O16" t="s">
         <v>56</v>
@@ -3315,10 +3360,10 @@
         <v>70</v>
       </c>
       <c r="AL16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AM16" s="1">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="AN16" t="s">
         <v>74</v>
@@ -3333,7 +3378,7 @@
         <v>64</v>
       </c>
       <c r="AR16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AU16" t="s">
         <v>56</v>
@@ -3342,7 +3387,7 @@
         <v>65</v>
       </c>
       <c r="AX16">
-        <v>24001097</v>
+        <v>24001067</v>
       </c>
       <c r="AY16">
         <v>631100</v>
@@ -3359,7 +3404,7 @@
         <v>69</v>
       </c>
       <c r="C17">
-        <v>24002523</v>
+        <v>24002521</v>
       </c>
       <c r="D17">
         <v>1204</v>
@@ -3368,13 +3413,13 @@
         <v>45339</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G17">
-        <v>267.38</v>
+        <v>26.23</v>
       </c>
       <c r="H17">
-        <v>267.38</v>
+        <v>26.23</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
@@ -3383,10 +3428,10 @@
         <v>55</v>
       </c>
       <c r="L17" s="2">
-        <v>4225368</v>
+        <v>414500</v>
       </c>
       <c r="N17" s="2">
-        <v>4225368</v>
+        <v>414500</v>
       </c>
       <c r="O17" t="s">
         <v>56</v>
@@ -3443,16 +3488,16 @@
         <v>56</v>
       </c>
       <c r="AI17">
-        <v>55322891</v>
+        <v>57404874</v>
       </c>
       <c r="AJ17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AM17" s="1">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="AN17" t="s">
         <v>74</v>
@@ -3467,7 +3512,7 @@
         <v>64</v>
       </c>
       <c r="AR17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AU17" t="s">
         <v>56</v>
@@ -3476,7 +3521,7 @@
         <v>65</v>
       </c>
       <c r="AX17">
-        <v>24001098</v>
+        <v>24001070</v>
       </c>
       <c r="AY17">
         <v>631100</v>
@@ -3493,7 +3538,7 @@
         <v>69</v>
       </c>
       <c r="C18">
-        <v>24002524</v>
+        <v>24002522</v>
       </c>
       <c r="D18">
         <v>1204</v>
@@ -3504,11 +3549,11 @@
       <c r="F18" t="s">
         <v>70</v>
       </c>
-      <c r="G18">
-        <v>228.55</v>
-      </c>
-      <c r="H18">
-        <v>228.55</v>
+      <c r="G18" s="2">
+        <v>1143.99</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1143.99</v>
       </c>
       <c r="I18" t="s">
         <v>55</v>
@@ -3517,10 +3562,10 @@
         <v>55</v>
       </c>
       <c r="L18" s="2">
-        <v>3611800</v>
+        <v>18078516</v>
       </c>
       <c r="N18" s="2">
-        <v>3611800</v>
+        <v>18078516</v>
       </c>
       <c r="O18" t="s">
         <v>56</v>
@@ -3583,10 +3628,10 @@
         <v>70</v>
       </c>
       <c r="AL18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AM18" s="1">
-        <v>45316</v>
+        <v>45301</v>
       </c>
       <c r="AN18" t="s">
         <v>74</v>
@@ -3601,7 +3646,7 @@
         <v>64</v>
       </c>
       <c r="AR18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AU18" t="s">
         <v>56</v>
@@ -3627,7 +3672,7 @@
         <v>69</v>
       </c>
       <c r="C19">
-        <v>24002525</v>
+        <v>24002523</v>
       </c>
       <c r="D19">
         <v>1204</v>
@@ -3636,13 +3681,13 @@
         <v>45339</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G19">
-        <v>38.619999999999997</v>
+        <v>267.38</v>
       </c>
       <c r="H19">
-        <v>38.619999999999997</v>
+        <v>267.38</v>
       </c>
       <c r="I19" t="s">
         <v>55</v>
@@ -3651,10 +3696,10 @@
         <v>55</v>
       </c>
       <c r="L19" s="2">
-        <v>610329</v>
+        <v>4225368</v>
       </c>
       <c r="N19" s="2">
-        <v>610329</v>
+        <v>4225368</v>
       </c>
       <c r="O19" t="s">
         <v>56</v>
@@ -3711,16 +3756,16 @@
         <v>56</v>
       </c>
       <c r="AI19">
-        <v>57304179</v>
+        <v>55322891</v>
       </c>
       <c r="AJ19" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AM19" s="1">
-        <v>45316</v>
+        <v>45301</v>
       </c>
       <c r="AN19" t="s">
         <v>74</v>
@@ -3744,7 +3789,7 @@
         <v>65</v>
       </c>
       <c r="AX19">
-        <v>24001099</v>
+        <v>24001098</v>
       </c>
       <c r="AY19">
         <v>631100</v>
@@ -3761,7 +3806,7 @@
         <v>69</v>
       </c>
       <c r="C20">
-        <v>24002526</v>
+        <v>24002524</v>
       </c>
       <c r="D20">
         <v>1204</v>
@@ -3773,10 +3818,10 @@
         <v>70</v>
       </c>
       <c r="G20">
-        <v>353.54</v>
+        <v>228.55</v>
       </c>
       <c r="H20">
-        <v>353.54</v>
+        <v>228.55</v>
       </c>
       <c r="I20" t="s">
         <v>55</v>
@@ -3785,10 +3830,10 @@
         <v>55</v>
       </c>
       <c r="L20" s="2">
-        <v>5587000</v>
+        <v>3611800</v>
       </c>
       <c r="N20" s="2">
-        <v>5587000</v>
+        <v>3611800</v>
       </c>
       <c r="O20" t="s">
         <v>56</v>
@@ -3815,7 +3860,7 @@
         <v>72</v>
       </c>
       <c r="X20">
-        <v>2103701</v>
+        <v>2103700</v>
       </c>
       <c r="Y20" s="1">
         <v>45339</v>
@@ -3851,7 +3896,7 @@
         <v>70</v>
       </c>
       <c r="AL20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AM20" s="1">
         <v>45316</v>
@@ -3869,7 +3914,7 @@
         <v>64</v>
       </c>
       <c r="AR20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AU20" t="s">
         <v>56</v>
@@ -3878,7 +3923,7 @@
         <v>65</v>
       </c>
       <c r="AX20">
-        <v>24001113</v>
+        <v>24001097</v>
       </c>
       <c r="AY20">
         <v>631100</v>
@@ -3895,7 +3940,7 @@
         <v>69</v>
       </c>
       <c r="C21">
-        <v>24002527</v>
+        <v>24002525</v>
       </c>
       <c r="D21">
         <v>1204</v>
@@ -3904,13 +3949,13 @@
         <v>45339</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="G21">
-        <v>716.55</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="H21">
-        <v>716.55</v>
+        <v>38.619999999999997</v>
       </c>
       <c r="I21" t="s">
         <v>55</v>
@@ -3919,10 +3964,10 @@
         <v>55</v>
       </c>
       <c r="L21" s="2">
-        <v>11323600</v>
+        <v>610329</v>
       </c>
       <c r="N21" s="2">
-        <v>11323600</v>
+        <v>610329</v>
       </c>
       <c r="O21" t="s">
         <v>56</v>
@@ -3949,7 +3994,7 @@
         <v>72</v>
       </c>
       <c r="X21">
-        <v>2103701</v>
+        <v>2103700</v>
       </c>
       <c r="Y21" s="1">
         <v>45339</v>
@@ -3979,13 +4024,13 @@
         <v>56</v>
       </c>
       <c r="AI21">
-        <v>55229662</v>
+        <v>57304179</v>
       </c>
       <c r="AJ21" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="AL21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AM21" s="1">
         <v>45316</v>
@@ -4003,7 +4048,7 @@
         <v>64</v>
       </c>
       <c r="AR21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AU21" t="s">
         <v>56</v>
@@ -4012,7 +4057,7 @@
         <v>65</v>
       </c>
       <c r="AX21">
-        <v>24001113</v>
+        <v>24001099</v>
       </c>
       <c r="AY21">
         <v>631100</v>
@@ -4023,26 +4068,41 @@
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>24001166</v>
+        <v>24002526</v>
       </c>
       <c r="D22">
         <v>1204</v>
       </c>
       <c r="E22" s="1">
-        <v>45341</v>
+        <v>45339</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>70</v>
+      </c>
+      <c r="G22">
+        <v>353.54</v>
+      </c>
+      <c r="H22">
+        <v>353.54</v>
       </c>
       <c r="I22" t="s">
         <v>55</v>
       </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5587000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>5587000</v>
+      </c>
       <c r="O22" t="s">
         <v>56</v>
       </c>
@@ -4050,7 +4110,10 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
       </c>
       <c r="T22" t="s">
         <v>58</v>
@@ -4059,22 +4122,22 @@
         <v>59</v>
       </c>
       <c r="V22" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="W22" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="X22">
-        <v>2104015</v>
+        <v>2103701</v>
       </c>
       <c r="Y22" s="1">
-        <v>45341</v>
+        <v>45339</v>
       </c>
       <c r="Z22" t="s">
         <v>56</v>
       </c>
       <c r="AA22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="s">
         <v>56</v>
@@ -4089,19 +4152,25 @@
         <v>56</v>
       </c>
       <c r="AG22">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="s">
         <v>56</v>
       </c>
+      <c r="AI22">
+        <v>55229662</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>70</v>
+      </c>
       <c r="AL22" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="AM22" s="1">
-        <v>45341</v>
+        <v>45316</v>
       </c>
       <c r="AN22" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AO22" t="s">
         <v>63</v>
@@ -4112,8 +4181,8 @@
       <c r="AQ22" t="s">
         <v>64</v>
       </c>
-      <c r="AR22">
-        <v>290059</v>
+      <c r="AR22" t="s">
+        <v>96</v>
       </c>
       <c r="AU22" t="s">
         <v>56</v>
@@ -4121,8 +4190,8 @@
       <c r="AV22" t="s">
         <v>65</v>
       </c>
-      <c r="AX22" t="s">
-        <v>56</v>
+      <c r="AX22">
+        <v>24001113</v>
       </c>
       <c r="AY22">
         <v>631100</v>
@@ -4139,22 +4208,22 @@
         <v>69</v>
       </c>
       <c r="C23">
-        <v>24002528</v>
+        <v>24002527</v>
       </c>
       <c r="D23">
         <v>1204</v>
       </c>
       <c r="E23" s="1">
-        <v>45341</v>
+        <v>45339</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G23">
-        <v>26.26</v>
+        <v>716.55</v>
       </c>
       <c r="H23">
-        <v>26.26</v>
+        <v>716.55</v>
       </c>
       <c r="I23" t="s">
         <v>55</v>
@@ -4163,10 +4232,10 @@
         <v>55</v>
       </c>
       <c r="L23" s="2">
-        <v>415000</v>
+        <v>11323600</v>
       </c>
       <c r="N23" s="2">
-        <v>415000</v>
+        <v>11323600</v>
       </c>
       <c r="O23" t="s">
         <v>56</v>
@@ -4193,10 +4262,10 @@
         <v>72</v>
       </c>
       <c r="X23">
-        <v>2103923</v>
+        <v>2103701</v>
       </c>
       <c r="Y23" s="1">
-        <v>45341</v>
+        <v>45339</v>
       </c>
       <c r="Z23" t="s">
         <v>56</v>
@@ -4223,13 +4292,13 @@
         <v>56</v>
       </c>
       <c r="AI23">
-        <v>55426480</v>
+        <v>55229662</v>
       </c>
       <c r="AJ23" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AM23" s="1">
         <v>45316</v>
@@ -4247,7 +4316,7 @@
         <v>64</v>
       </c>
       <c r="AR23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AU23" t="s">
         <v>56</v>
@@ -4256,7 +4325,7 @@
         <v>65</v>
       </c>
       <c r="AX23">
-        <v>24001114</v>
+        <v>24001113</v>
       </c>
       <c r="AY23">
         <v>631100</v>
@@ -4267,13 +4336,13 @@
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C24">
-        <v>24002529</v>
+        <v>24001166</v>
       </c>
       <c r="D24">
         <v>1204</v>
@@ -4282,26 +4351,11 @@
         <v>45341</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24">
-        <v>76.88</v>
-      </c>
-      <c r="H24">
-        <v>76.88</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
         <v>55</v>
       </c>
-      <c r="J24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1215000</v>
-      </c>
-      <c r="N24" s="2">
-        <v>1215000</v>
-      </c>
       <c r="O24" t="s">
         <v>56</v>
       </c>
@@ -4309,10 +4363,7 @@
         <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24">
-        <v>15803</v>
+        <v>81</v>
       </c>
       <c r="T24" t="s">
         <v>58</v>
@@ -4321,13 +4372,13 @@
         <v>59</v>
       </c>
       <c r="V24" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="W24" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="X24">
-        <v>2103923</v>
+        <v>2104015</v>
       </c>
       <c r="Y24" s="1">
         <v>45341</v>
@@ -4336,7 +4387,7 @@
         <v>56</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB24" t="s">
         <v>56</v>
@@ -4351,25 +4402,19 @@
         <v>56</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="AH24" t="s">
         <v>56</v>
       </c>
-      <c r="AI24">
-        <v>55426480</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>78</v>
-      </c>
       <c r="AL24" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AM24" s="1">
-        <v>45316</v>
+        <v>45341</v>
       </c>
       <c r="AN24" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AO24" t="s">
         <v>63</v>
@@ -4380,8 +4425,8 @@
       <c r="AQ24" t="s">
         <v>64</v>
       </c>
-      <c r="AR24" t="s">
-        <v>107</v>
+      <c r="AR24">
+        <v>290059</v>
       </c>
       <c r="AU24" t="s">
         <v>56</v>
@@ -4389,8 +4434,8 @@
       <c r="AV24" t="s">
         <v>65</v>
       </c>
-      <c r="AX24">
-        <v>24001114</v>
+      <c r="AX24" t="s">
+        <v>56</v>
       </c>
       <c r="AY24">
         <v>631100</v>
@@ -4401,25 +4446,28 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>24002192</v>
+        <v>24002528</v>
       </c>
       <c r="D25">
         <v>1204</v>
       </c>
       <c r="E25" s="1">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G25">
-        <v>-0.06</v>
+        <v>26.26</v>
+      </c>
+      <c r="H25">
+        <v>26.26</v>
       </c>
       <c r="I25" t="s">
         <v>55</v>
@@ -4427,8 +4475,11 @@
       <c r="J25" t="s">
         <v>55</v>
       </c>
-      <c r="K25">
-        <v>-0.06</v>
+      <c r="L25" s="2">
+        <v>415000</v>
+      </c>
+      <c r="N25" s="2">
+        <v>415000</v>
       </c>
       <c r="O25" t="s">
         <v>56</v>
@@ -4449,22 +4500,22 @@
         <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="X25">
-        <v>2104066</v>
+        <v>2103923</v>
       </c>
       <c r="Y25" s="1">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="Z25" t="s">
         <v>56</v>
       </c>
       <c r="AA25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="s">
         <v>56</v>
@@ -4478,26 +4529,26 @@
       <c r="AF25" t="s">
         <v>56</v>
       </c>
-      <c r="AG25" s="2">
-        <v>1152</v>
+      <c r="AG25">
+        <v>1</v>
       </c>
       <c r="AH25" t="s">
         <v>56</v>
       </c>
       <c r="AI25">
-        <v>55254841</v>
+        <v>55426480</v>
       </c>
       <c r="AJ25" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="AM25" s="1">
-        <v>45342</v>
+        <v>45316</v>
       </c>
       <c r="AN25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AO25" t="s">
         <v>63</v>
@@ -4508,8 +4559,8 @@
       <c r="AQ25" t="s">
         <v>64</v>
       </c>
-      <c r="AR25">
-        <v>295218</v>
+      <c r="AR25" t="s">
+        <v>105</v>
       </c>
       <c r="AU25" t="s">
         <v>56</v>
@@ -4518,7 +4569,7 @@
         <v>65</v>
       </c>
       <c r="AX25">
-        <v>23003202</v>
+        <v>24001114</v>
       </c>
       <c r="AY25">
         <v>631100</v>
@@ -4529,34 +4580,40 @@
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C26">
-        <v>24002197</v>
+        <v>24002529</v>
       </c>
       <c r="D26">
         <v>1204</v>
       </c>
       <c r="E26" s="1">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G26">
-        <v>2.57</v>
+        <v>76.88</v>
       </c>
       <c r="H26">
-        <v>2.57</v>
+        <v>76.88</v>
       </c>
       <c r="I26" t="s">
         <v>55</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1215000</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1215000</v>
       </c>
       <c r="O26" t="s">
         <v>56</v>
@@ -4577,22 +4634,22 @@
         <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="W26" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="X26">
-        <v>2104066</v>
+        <v>2103923</v>
       </c>
       <c r="Y26" s="1">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="Z26" t="s">
         <v>56</v>
       </c>
       <c r="AA26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB26" t="s">
         <v>56</v>
@@ -4607,25 +4664,25 @@
         <v>56</v>
       </c>
       <c r="AG26">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="AH26" t="s">
         <v>56</v>
       </c>
       <c r="AI26">
-        <v>55254841</v>
+        <v>55426480</v>
       </c>
       <c r="AJ26" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AM26" s="1">
-        <v>45342</v>
+        <v>45316</v>
       </c>
       <c r="AN26" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="AO26" t="s">
         <v>63</v>
@@ -4636,8 +4693,8 @@
       <c r="AQ26" t="s">
         <v>64</v>
       </c>
-      <c r="AR26">
-        <v>295218</v>
+      <c r="AR26" t="s">
+        <v>107</v>
       </c>
       <c r="AU26" t="s">
         <v>56</v>
@@ -4646,7 +4703,7 @@
         <v>65</v>
       </c>
       <c r="AX26">
-        <v>23003202</v>
+        <v>24001114</v>
       </c>
       <c r="AY26">
         <v>631100</v>
@@ -4663,7 +4720,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>24002198</v>
+        <v>24002192</v>
       </c>
       <c r="D27">
         <v>1204</v>
@@ -4675,16 +4732,16 @@
         <v>54</v>
       </c>
       <c r="G27">
-        <v>4.58</v>
-      </c>
-      <c r="H27">
-        <v>4.58</v>
+        <v>-0.06</v>
       </c>
       <c r="I27" t="s">
         <v>55</v>
       </c>
       <c r="J27" t="s">
         <v>55</v>
+      </c>
+      <c r="K27">
+        <v>-0.06</v>
       </c>
       <c r="O27" t="s">
         <v>56</v>
@@ -4734,8 +4791,8 @@
       <c r="AF27" t="s">
         <v>56</v>
       </c>
-      <c r="AG27">
-        <v>576</v>
+      <c r="AG27" s="2">
+        <v>1152</v>
       </c>
       <c r="AH27" t="s">
         <v>56</v>
@@ -4791,7 +4848,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>24002199</v>
+        <v>24002197</v>
       </c>
       <c r="D28">
         <v>1204</v>
@@ -4803,10 +4860,10 @@
         <v>54</v>
       </c>
       <c r="G28">
-        <v>1.1299999999999999</v>
+        <v>2.57</v>
       </c>
       <c r="H28">
-        <v>1.1299999999999999</v>
+        <v>2.57</v>
       </c>
       <c r="I28" t="s">
         <v>55</v>
@@ -4863,7 +4920,7 @@
         <v>56</v>
       </c>
       <c r="AG28">
-        <v>158.4</v>
+        <v>360</v>
       </c>
       <c r="AH28" t="s">
         <v>56</v>
@@ -4893,7 +4950,7 @@
         <v>64</v>
       </c>
       <c r="AR28">
-        <v>295210</v>
+        <v>295218</v>
       </c>
       <c r="AU28" t="s">
         <v>56</v>
@@ -4919,7 +4976,7 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>24002200</v>
+        <v>24002198</v>
       </c>
       <c r="D29">
         <v>1204</v>
@@ -4931,10 +4988,10 @@
         <v>54</v>
       </c>
       <c r="G29">
-        <v>2.68</v>
+        <v>4.58</v>
       </c>
       <c r="H29">
-        <v>2.68</v>
+        <v>4.58</v>
       </c>
       <c r="I29" t="s">
         <v>55</v>
@@ -4991,7 +5048,7 @@
         <v>56</v>
       </c>
       <c r="AG29">
-        <v>374.4</v>
+        <v>576</v>
       </c>
       <c r="AH29" t="s">
         <v>56</v>
@@ -5021,7 +5078,7 @@
         <v>64</v>
       </c>
       <c r="AR29">
-        <v>295231</v>
+        <v>295218</v>
       </c>
       <c r="AU29" t="s">
         <v>56</v>
@@ -5047,7 +5104,7 @@
         <v>53</v>
       </c>
       <c r="C30">
-        <v>24002201</v>
+        <v>24002199</v>
       </c>
       <c r="D30">
         <v>1204</v>
@@ -5059,10 +5116,10 @@
         <v>54</v>
       </c>
       <c r="G30">
-        <v>2.68</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="H30">
-        <v>2.68</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="I30" t="s">
         <v>55</v>
@@ -5119,7 +5176,7 @@
         <v>56</v>
       </c>
       <c r="AG30">
-        <v>374.4</v>
+        <v>158.4</v>
       </c>
       <c r="AH30" t="s">
         <v>56</v>
@@ -5149,7 +5206,7 @@
         <v>64</v>
       </c>
       <c r="AR30">
-        <v>295235</v>
+        <v>295210</v>
       </c>
       <c r="AU30" t="s">
         <v>56</v>
@@ -5175,7 +5232,7 @@
         <v>53</v>
       </c>
       <c r="C31">
-        <v>24002202</v>
+        <v>24002200</v>
       </c>
       <c r="D31">
         <v>1204</v>
@@ -5187,10 +5244,10 @@
         <v>54</v>
       </c>
       <c r="G31">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="H31">
-        <v>1.85</v>
+        <v>2.68</v>
       </c>
       <c r="I31" t="s">
         <v>55</v>
@@ -5247,7 +5304,7 @@
         <v>56</v>
       </c>
       <c r="AG31">
-        <v>259.2</v>
+        <v>374.4</v>
       </c>
       <c r="AH31" t="s">
         <v>56</v>
@@ -5277,7 +5334,7 @@
         <v>64</v>
       </c>
       <c r="AR31">
-        <v>295237</v>
+        <v>295231</v>
       </c>
       <c r="AU31" t="s">
         <v>56</v>
@@ -5303,7 +5360,7 @@
         <v>53</v>
       </c>
       <c r="C32">
-        <v>24002203</v>
+        <v>24002201</v>
       </c>
       <c r="D32">
         <v>1204</v>
@@ -5315,10 +5372,10 @@
         <v>54</v>
       </c>
       <c r="G32">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="H32">
-        <v>1.91</v>
+        <v>2.68</v>
       </c>
       <c r="I32" t="s">
         <v>55</v>
@@ -5375,7 +5432,7 @@
         <v>56</v>
       </c>
       <c r="AG32">
-        <v>259.2</v>
+        <v>374.4</v>
       </c>
       <c r="AH32" t="s">
         <v>56</v>
@@ -5405,7 +5462,7 @@
         <v>64</v>
       </c>
       <c r="AR32">
-        <v>295227</v>
+        <v>295235</v>
       </c>
       <c r="AU32" t="s">
         <v>56</v>
@@ -5431,7 +5488,7 @@
         <v>53</v>
       </c>
       <c r="C33">
-        <v>24002204</v>
+        <v>24002202</v>
       </c>
       <c r="D33">
         <v>1204</v>
@@ -5443,10 +5500,10 @@
         <v>54</v>
       </c>
       <c r="G33">
-        <v>2.5499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="H33">
-        <v>2.5499999999999998</v>
+        <v>1.85</v>
       </c>
       <c r="I33" t="s">
         <v>55</v>
@@ -5503,7 +5560,7 @@
         <v>56</v>
       </c>
       <c r="AG33">
-        <v>345.6</v>
+        <v>259.2</v>
       </c>
       <c r="AH33" t="s">
         <v>56</v>
@@ -5533,7 +5590,7 @@
         <v>64</v>
       </c>
       <c r="AR33">
-        <v>295238</v>
+        <v>295237</v>
       </c>
       <c r="AU33" t="s">
         <v>56</v>
@@ -5559,7 +5616,7 @@
         <v>53</v>
       </c>
       <c r="C34">
-        <v>24002205</v>
+        <v>24002203</v>
       </c>
       <c r="D34">
         <v>1204</v>
@@ -5571,10 +5628,10 @@
         <v>54</v>
       </c>
       <c r="G34">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="H34">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="I34" t="s">
         <v>55</v>
@@ -5631,7 +5688,7 @@
         <v>56</v>
       </c>
       <c r="AG34">
-        <v>244.8</v>
+        <v>259.2</v>
       </c>
       <c r="AH34" t="s">
         <v>56</v>
@@ -5661,7 +5718,7 @@
         <v>64</v>
       </c>
       <c r="AR34">
-        <v>295217</v>
+        <v>295227</v>
       </c>
       <c r="AU34" t="s">
         <v>56</v>
@@ -5681,40 +5738,34 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C35">
-        <v>24002595</v>
+        <v>24002204</v>
       </c>
       <c r="D35">
         <v>1204</v>
       </c>
       <c r="E35" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G35">
-        <v>87.93</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H35">
-        <v>87.93</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I35" t="s">
         <v>55</v>
       </c>
       <c r="J35" t="s">
         <v>55</v>
-      </c>
-      <c r="L35" s="2">
-        <v>1389496</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1389496</v>
       </c>
       <c r="O35" t="s">
         <v>56</v>
@@ -5735,22 +5786,22 @@
         <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="W35" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="X35">
-        <v>2105142</v>
+        <v>2104066</v>
       </c>
       <c r="Y35" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="Z35" t="s">
         <v>56</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB35" t="s">
         <v>56</v>
@@ -5765,25 +5816,25 @@
         <v>56</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>345.6</v>
       </c>
       <c r="AH35" t="s">
         <v>56</v>
       </c>
       <c r="AI35">
-        <v>55322891</v>
+        <v>55254841</v>
       </c>
       <c r="AJ35" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="AL35" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="AM35" s="1">
-        <v>44930</v>
+        <v>45342</v>
       </c>
       <c r="AN35" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="AO35" t="s">
         <v>63</v>
@@ -5794,8 +5845,8 @@
       <c r="AQ35" t="s">
         <v>64</v>
       </c>
-      <c r="AR35" t="s">
-        <v>77</v>
+      <c r="AR35">
+        <v>295238</v>
       </c>
       <c r="AU35" t="s">
         <v>56</v>
@@ -5804,7 +5855,7 @@
         <v>65</v>
       </c>
       <c r="AX35">
-        <v>24001170</v>
+        <v>23003202</v>
       </c>
       <c r="AY35">
         <v>631100</v>
@@ -5815,40 +5866,34 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C36">
-        <v>24002598</v>
+        <v>24002205</v>
       </c>
       <c r="D36">
         <v>1204</v>
       </c>
       <c r="E36" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="G36">
-        <v>562.42999999999995</v>
+        <v>1.81</v>
       </c>
       <c r="H36">
-        <v>562.42999999999995</v>
+        <v>1.81</v>
       </c>
       <c r="I36" t="s">
         <v>55</v>
       </c>
       <c r="J36" t="s">
         <v>55</v>
-      </c>
-      <c r="L36" s="2">
-        <v>8888016</v>
-      </c>
-      <c r="N36" s="2">
-        <v>8888016</v>
       </c>
       <c r="O36" t="s">
         <v>56</v>
@@ -5869,22 +5914,22 @@
         <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="W36" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="X36">
-        <v>2105154</v>
+        <v>2104066</v>
       </c>
       <c r="Y36" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="Z36" t="s">
         <v>56</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB36" t="s">
         <v>56</v>
@@ -5899,25 +5944,25 @@
         <v>56</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>244.8</v>
       </c>
       <c r="AH36" t="s">
         <v>56</v>
       </c>
       <c r="AI36">
-        <v>55738803</v>
+        <v>55254841</v>
       </c>
       <c r="AJ36" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="AL36" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="AM36" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="AN36" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="AO36" t="s">
         <v>63</v>
@@ -5928,8 +5973,8 @@
       <c r="AQ36" t="s">
         <v>64</v>
       </c>
-      <c r="AR36" t="s">
-        <v>112</v>
+      <c r="AR36">
+        <v>295217</v>
       </c>
       <c r="AU36" t="s">
         <v>56</v>
@@ -5938,7 +5983,7 @@
         <v>65</v>
       </c>
       <c r="AX36">
-        <v>24001155</v>
+        <v>23003202</v>
       </c>
       <c r="AY36">
         <v>631100</v>
@@ -5955,7 +6000,7 @@
         <v>69</v>
       </c>
       <c r="C37">
-        <v>24002599</v>
+        <v>24002595</v>
       </c>
       <c r="D37">
         <v>1204</v>
@@ -5964,13 +6009,13 @@
         <v>45344</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>166.7</v>
+        <v>87.93</v>
       </c>
       <c r="H37">
-        <v>166.7</v>
+        <v>87.93</v>
       </c>
       <c r="I37" t="s">
         <v>55</v>
@@ -5979,10 +6024,10 @@
         <v>55</v>
       </c>
       <c r="L37" s="2">
-        <v>2634361</v>
+        <v>1389496</v>
       </c>
       <c r="N37" s="2">
-        <v>2634361</v>
+        <v>1389496</v>
       </c>
       <c r="O37" t="s">
         <v>56</v>
@@ -6009,7 +6054,7 @@
         <v>72</v>
       </c>
       <c r="X37">
-        <v>2105154</v>
+        <v>2105142</v>
       </c>
       <c r="Y37" s="1">
         <v>45344</v>
@@ -6039,19 +6084,19 @@
         <v>56</v>
       </c>
       <c r="AI37">
-        <v>55738803</v>
+        <v>55322891</v>
       </c>
       <c r="AJ37" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AM37" s="1">
-        <v>45338</v>
+        <v>44930</v>
       </c>
       <c r="AN37" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="AO37" t="s">
         <v>63</v>
@@ -6063,7 +6108,7 @@
         <v>64</v>
       </c>
       <c r="AR37" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="AU37" t="s">
         <v>56</v>
@@ -6072,7 +6117,7 @@
         <v>65</v>
       </c>
       <c r="AX37">
-        <v>24001155</v>
+        <v>24001170</v>
       </c>
       <c r="AY37">
         <v>631100</v>
@@ -6089,22 +6134,22 @@
         <v>69</v>
       </c>
       <c r="C38">
-        <v>24002605</v>
+        <v>24002598</v>
       </c>
       <c r="D38">
         <v>1204</v>
       </c>
       <c r="E38" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G38">
-        <v>121.61</v>
+        <v>562.42999999999995</v>
       </c>
       <c r="H38">
-        <v>121.61</v>
+        <v>562.42999999999995</v>
       </c>
       <c r="I38" t="s">
         <v>55</v>
@@ -6113,10 +6158,10 @@
         <v>55</v>
       </c>
       <c r="L38" s="2">
-        <v>1921862</v>
+        <v>8888016</v>
       </c>
       <c r="N38" s="2">
-        <v>1921862</v>
+        <v>8888016</v>
       </c>
       <c r="O38" t="s">
         <v>56</v>
@@ -6143,10 +6188,10 @@
         <v>72</v>
       </c>
       <c r="X38">
-        <v>2105313</v>
+        <v>2105154</v>
       </c>
       <c r="Y38" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="Z38" t="s">
         <v>56</v>
@@ -6173,16 +6218,16 @@
         <v>56</v>
       </c>
       <c r="AI38">
-        <v>55417891</v>
+        <v>55738803</v>
       </c>
       <c r="AJ38" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AL38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AM38" s="1">
-        <v>45323</v>
+        <v>45338</v>
       </c>
       <c r="AN38" t="s">
         <v>111</v>
@@ -6197,7 +6242,7 @@
         <v>64</v>
       </c>
       <c r="AR38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AU38" t="s">
         <v>56</v>
@@ -6206,7 +6251,7 @@
         <v>65</v>
       </c>
       <c r="AX38">
-        <v>24001157</v>
+        <v>24001155</v>
       </c>
       <c r="AY38">
         <v>631100</v>
@@ -6223,22 +6268,22 @@
         <v>69</v>
       </c>
       <c r="C39">
-        <v>24002606</v>
+        <v>24002599</v>
       </c>
       <c r="D39">
         <v>1204</v>
       </c>
       <c r="E39" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="F39" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="2">
-        <v>1216.1400000000001</v>
-      </c>
-      <c r="H39" s="2">
-        <v>1216.1400000000001</v>
+        <v>109</v>
+      </c>
+      <c r="G39">
+        <v>166.7</v>
+      </c>
+      <c r="H39">
+        <v>166.7</v>
       </c>
       <c r="I39" t="s">
         <v>55</v>
@@ -6247,10 +6292,10 @@
         <v>55</v>
       </c>
       <c r="L39" s="2">
-        <v>19218622</v>
+        <v>2634361</v>
       </c>
       <c r="N39" s="2">
-        <v>19218622</v>
+        <v>2634361</v>
       </c>
       <c r="O39" t="s">
         <v>56</v>
@@ -6277,10 +6322,10 @@
         <v>72</v>
       </c>
       <c r="X39">
-        <v>2105314</v>
+        <v>2105154</v>
       </c>
       <c r="Y39" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="Z39" t="s">
         <v>56</v>
@@ -6307,16 +6352,16 @@
         <v>56</v>
       </c>
       <c r="AI39">
-        <v>55417891</v>
+        <v>55738803</v>
       </c>
       <c r="AJ39" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AL39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AM39" s="1">
-        <v>45323</v>
+        <v>45338</v>
       </c>
       <c r="AN39" t="s">
         <v>111</v>
@@ -6331,7 +6376,7 @@
         <v>64</v>
       </c>
       <c r="AR39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AU39" t="s">
         <v>56</v>
@@ -6340,7 +6385,7 @@
         <v>65</v>
       </c>
       <c r="AX39">
-        <v>24001157</v>
+        <v>24001155</v>
       </c>
       <c r="AY39">
         <v>631100</v>
@@ -6357,7 +6402,7 @@
         <v>69</v>
       </c>
       <c r="C40">
-        <v>24002609</v>
+        <v>24002605</v>
       </c>
       <c r="D40">
         <v>1204</v>
@@ -6369,10 +6414,10 @@
         <v>115</v>
       </c>
       <c r="G40">
-        <v>3.62</v>
+        <v>121.61</v>
       </c>
       <c r="H40">
-        <v>3.62</v>
+        <v>121.61</v>
       </c>
       <c r="I40" t="s">
         <v>55</v>
@@ -6381,10 +6426,10 @@
         <v>55</v>
       </c>
       <c r="L40" s="2">
-        <v>57282</v>
+        <v>1921862</v>
       </c>
       <c r="N40" s="2">
-        <v>57282</v>
+        <v>1921862</v>
       </c>
       <c r="O40" t="s">
         <v>56</v>
@@ -6411,7 +6456,7 @@
         <v>72</v>
       </c>
       <c r="X40">
-        <v>2105324</v>
+        <v>2105313</v>
       </c>
       <c r="Y40" s="1">
         <v>45345</v>
@@ -6447,10 +6492,10 @@
         <v>115</v>
       </c>
       <c r="AL40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AM40" s="1">
-        <v>45334</v>
+        <v>45323</v>
       </c>
       <c r="AN40" t="s">
         <v>111</v>
@@ -6465,7 +6510,7 @@
         <v>64</v>
       </c>
       <c r="AR40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AU40" t="s">
         <v>56</v>
@@ -6474,7 +6519,7 @@
         <v>65</v>
       </c>
       <c r="AX40">
-        <v>24001158</v>
+        <v>24001157</v>
       </c>
       <c r="AY40">
         <v>631100</v>
@@ -6491,7 +6536,7 @@
         <v>69</v>
       </c>
       <c r="C41">
-        <v>24002610</v>
+        <v>24002606</v>
       </c>
       <c r="D41">
         <v>1204</v>
@@ -6502,11 +6547,11 @@
       <c r="F41" t="s">
         <v>115</v>
       </c>
-      <c r="G41">
-        <v>36.25</v>
-      </c>
-      <c r="H41">
-        <v>36.25</v>
+      <c r="G41" s="2">
+        <v>1216.1400000000001</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1216.1400000000001</v>
       </c>
       <c r="I41" t="s">
         <v>55</v>
@@ -6515,10 +6560,10 @@
         <v>55</v>
       </c>
       <c r="L41" s="2">
-        <v>572823</v>
+        <v>19218622</v>
       </c>
       <c r="N41" s="2">
-        <v>572823</v>
+        <v>19218622</v>
       </c>
       <c r="O41" t="s">
         <v>56</v>
@@ -6545,7 +6590,7 @@
         <v>72</v>
       </c>
       <c r="X41">
-        <v>2105325</v>
+        <v>2105314</v>
       </c>
       <c r="Y41" s="1">
         <v>45345</v>
@@ -6581,10 +6626,10 @@
         <v>115</v>
       </c>
       <c r="AL41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AM41" s="1">
-        <v>45334</v>
+        <v>45323</v>
       </c>
       <c r="AN41" t="s">
         <v>111</v>
@@ -6599,7 +6644,7 @@
         <v>64</v>
       </c>
       <c r="AR41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AU41" t="s">
         <v>56</v>
@@ -6608,7 +6653,7 @@
         <v>65</v>
       </c>
       <c r="AX41">
-        <v>24001158</v>
+        <v>24001157</v>
       </c>
       <c r="AY41">
         <v>631100</v>
@@ -6618,74 +6663,1752 @@
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>24002609</v>
+      </c>
+      <c r="D42">
+        <v>1204</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45345</v>
+      </c>
       <c r="F42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="2">
-        <v>7277.54</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1396773.97</v>
-      </c>
-      <c r="K42" s="2">
-        <v>-1389496.43</v>
+        <v>115</v>
+      </c>
+      <c r="G42">
+        <v>3.62</v>
+      </c>
+      <c r="H42">
+        <v>3.62</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
       </c>
       <c r="L42" s="2">
-        <v>114374667</v>
+        <v>57282</v>
       </c>
       <c r="N42" s="2">
-        <v>114374667</v>
-      </c>
-      <c r="AG42" s="2">
-        <v>29560.639999999999</v>
+        <v>57282</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42">
+        <v>15803</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" t="s">
+        <v>71</v>
+      </c>
+      <c r="W42" t="s">
+        <v>72</v>
+      </c>
+      <c r="X42">
+        <v>2105324</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI42">
+        <v>55417891</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP42">
+        <v>1204</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX42">
+        <v>24001158</v>
+      </c>
+      <c r="AY42">
+        <v>631100</v>
+      </c>
+      <c r="AZ42">
+        <v>1204.6311000000001</v>
       </c>
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43">
+        <v>24002610</v>
+      </c>
+      <c r="D43">
+        <v>1204</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45345</v>
+      </c>
       <c r="F43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="2">
-        <v>7277.54</v>
-      </c>
-      <c r="H43" s="2">
-        <v>7277.54</v>
+        <v>115</v>
+      </c>
+      <c r="G43">
+        <v>36.25</v>
+      </c>
+      <c r="H43">
+        <v>36.25</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
       </c>
       <c r="L43" s="2">
-        <v>114374667</v>
+        <v>572823</v>
       </c>
       <c r="N43" s="2">
-        <v>114374667</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>29560.639999999999</v>
+        <v>572823</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43">
+        <v>15803</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>71</v>
+      </c>
+      <c r="W43" t="s">
+        <v>72</v>
+      </c>
+      <c r="X43">
+        <v>2105325</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI43">
+        <v>55417891</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP43">
+        <v>1204</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX43">
+        <v>24001158</v>
+      </c>
+      <c r="AY43">
+        <v>631100</v>
+      </c>
+      <c r="AZ43">
+        <v>1204.6311000000001</v>
       </c>
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>24002616</v>
+      </c>
+      <c r="D44">
+        <v>1204</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45346</v>
+      </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="G44" s="2">
-        <v>7277.54</v>
+        <v>1394.99</v>
       </c>
       <c r="H44" s="2">
-        <v>1396773.97</v>
-      </c>
-      <c r="K44" s="2">
-        <v>-1389496.43</v>
+        <v>1394.99</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
       </c>
       <c r="L44" s="2">
-        <v>114374667</v>
+        <v>22045000</v>
       </c>
       <c r="N44" s="2">
-        <v>114374667</v>
-      </c>
-      <c r="AG44" s="2">
-        <v>29560.639999999999</v>
+        <v>22045000</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44">
+        <v>15803</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>71</v>
+      </c>
+      <c r="W44" t="s">
+        <v>72</v>
+      </c>
+      <c r="X44">
+        <v>2105381</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI44">
+        <v>55229662</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP44">
+        <v>1204</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX44">
+        <v>24001097</v>
+      </c>
+      <c r="AY44">
+        <v>631100</v>
+      </c>
+      <c r="AZ44">
+        <v>1204.6311000000001</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45">
+        <v>24002618</v>
+      </c>
+      <c r="D45">
+        <v>1204</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45346</v>
+      </c>
       <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45">
+        <v>30.21</v>
+      </c>
+      <c r="H45">
+        <v>30.21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="2">
+        <v>477341</v>
+      </c>
+      <c r="N45" s="2">
+        <v>477341</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45">
+        <v>15803</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>71</v>
+      </c>
+      <c r="W45" t="s">
+        <v>72</v>
+      </c>
+      <c r="X45">
+        <v>2105382</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI45">
+        <v>55113299</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL45" t="s">
         <v>125</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP45">
+        <v>1204</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX45">
+        <v>24001100</v>
+      </c>
+      <c r="AY45">
+        <v>631100</v>
+      </c>
+      <c r="AZ45">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>24002619</v>
+      </c>
+      <c r="D46">
+        <v>1204</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46">
+        <v>36.07</v>
+      </c>
+      <c r="H46">
+        <v>36.07</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2">
+        <v>570000</v>
+      </c>
+      <c r="N46" s="2">
+        <v>570000</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46">
+        <v>15803</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>71</v>
+      </c>
+      <c r="W46" t="s">
+        <v>72</v>
+      </c>
+      <c r="X46">
+        <v>2105382</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>56013767</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP46">
+        <v>1204</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX46">
+        <v>24001101</v>
+      </c>
+      <c r="AY46">
+        <v>631100</v>
+      </c>
+      <c r="AZ46">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>24001193</v>
+      </c>
+      <c r="D47">
+        <v>1204</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>102</v>
+      </c>
+      <c r="W47" t="s">
+        <v>103</v>
+      </c>
+      <c r="X47">
+        <v>2105758</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG47">
+        <v>829</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP47">
+        <v>1204</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR47">
+        <v>290112</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY47">
+        <v>631100</v>
+      </c>
+      <c r="AZ47">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>24001194</v>
+      </c>
+      <c r="D48">
+        <v>1204</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>102</v>
+      </c>
+      <c r="W48" t="s">
+        <v>103</v>
+      </c>
+      <c r="X48">
+        <v>2105758</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48">
+        <v>556</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP48">
+        <v>1204</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR48">
+        <v>285816</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY48">
+        <v>631100</v>
+      </c>
+      <c r="AZ48">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>24001194</v>
+      </c>
+      <c r="D49">
+        <v>1204</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>102</v>
+      </c>
+      <c r="W49" t="s">
+        <v>103</v>
+      </c>
+      <c r="X49">
+        <v>2105758</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>6</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>652</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP49">
+        <v>1204</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR49">
+        <v>285817</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY49">
+        <v>631100</v>
+      </c>
+      <c r="AZ49">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>24001194</v>
+      </c>
+      <c r="D50">
+        <v>1204</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F50" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>102</v>
+      </c>
+      <c r="W50" t="s">
+        <v>103</v>
+      </c>
+      <c r="X50">
+        <v>2105758</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>8</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>1254</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP50">
+        <v>1204</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR50">
+        <v>285830</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY50">
+        <v>631100</v>
+      </c>
+      <c r="AZ50">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51">
+        <v>24001194</v>
+      </c>
+      <c r="D51">
+        <v>1204</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>102</v>
+      </c>
+      <c r="W51" t="s">
+        <v>103</v>
+      </c>
+      <c r="X51">
+        <v>2105758</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51">
+        <v>10</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51">
+        <v>29</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP51">
+        <v>1204</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR51">
+        <v>288246</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY51">
+        <v>631100</v>
+      </c>
+      <c r="AZ51">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52">
+        <v>24001194</v>
+      </c>
+      <c r="D52">
+        <v>1204</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>102</v>
+      </c>
+      <c r="W52" t="s">
+        <v>103</v>
+      </c>
+      <c r="X52">
+        <v>2105758</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG52">
+        <v>517</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP52">
+        <v>1204</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR52">
+        <v>285808</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY52">
+        <v>631100</v>
+      </c>
+      <c r="AZ52">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53">
+        <v>24001200</v>
+      </c>
+      <c r="D53">
+        <v>1204</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>102</v>
+      </c>
+      <c r="W53" t="s">
+        <v>103</v>
+      </c>
+      <c r="X53">
+        <v>2106176</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
+        <v>8</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP53">
+        <v>1204</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR53">
+        <v>253123</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY53">
+        <v>631100</v>
+      </c>
+      <c r="AZ53">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54">
+        <v>24001028</v>
+      </c>
+      <c r="D54">
+        <v>1204</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45350</v>
+      </c>
+      <c r="F54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G54">
+        <v>3.67</v>
+      </c>
+      <c r="H54">
+        <v>3.67</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="2">
+        <v>57990</v>
+      </c>
+      <c r="N54" s="2">
+        <v>57990</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <v>15803</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>133</v>
+      </c>
+      <c r="W54" t="s">
+        <v>134</v>
+      </c>
+      <c r="X54">
+        <v>2106355</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45351</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP54">
+        <v>1204</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY54">
+        <v>631100</v>
+      </c>
+      <c r="AZ54">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55">
+        <v>24001012</v>
+      </c>
+      <c r="D55">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F55" t="s">
+        <v>139</v>
+      </c>
+      <c r="G55" s="2">
+        <v>-6592.05</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="2">
+        <v>-6592.05</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>133</v>
+      </c>
+      <c r="W55" t="s">
+        <v>134</v>
+      </c>
+      <c r="X55">
+        <v>2107209</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>3</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP55">
+        <v>1204</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY55">
+        <v>631100</v>
+      </c>
+      <c r="AZ55">
+        <v>1204.6311000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2155.69</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1398244.18</v>
+      </c>
+      <c r="K56" s="2">
+        <v>-1396088.49</v>
+      </c>
+      <c r="L56" s="2">
+        <v>137524998</v>
+      </c>
+      <c r="N56" s="2">
+        <v>137524998</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>34157.440000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2155.69</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2155.69</v>
+      </c>
+      <c r="L57" s="2">
+        <v>137524998</v>
+      </c>
+      <c r="N57" s="2">
+        <v>137524998</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>34157.440000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2155.69</v>
+      </c>
+      <c r="H58" s="2">
+        <v>1398244.18</v>
+      </c>
+      <c r="K58" s="2">
+        <v>-1396088.49</v>
+      </c>
+      <c r="L58" s="2">
+        <v>137524998</v>
+      </c>
+      <c r="N58" s="2">
+        <v>137524998</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>34157.440000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
